--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{118979B5-E2AC-4842-B852-68BF2E589C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D4F5BE8-3785-4360-9547-812A36376C15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="007" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -305,12 +304,15 @@
   </si>
   <si>
     <t>VEC-007-04-117</t>
+  </si>
+  <si>
+    <t>Research Gate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,14 +1146,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9EA39E-15D2-4D10-8F80-72E461EF40A5}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="57.21875" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" customWidth="1"/>
+    <col min="10" max="11" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1165,22 +1178,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1190,14 +1206,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1210,20 +1226,20 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1236,23 +1252,23 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1265,17 +1281,17 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1288,23 +1304,23 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1317,23 +1333,23 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1343,14 +1359,14 @@
       <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1363,23 +1379,23 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1392,20 +1408,20 @@
       <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1415,17 +1431,17 @@
       <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1438,14 +1454,14 @@
       <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1458,20 +1474,20 @@
       <c r="D13" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>85</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1484,19 +1500,19 @@
       <c r="D14" t="s">
         <v>89</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>90</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>91</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>92</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>94</v>
       </c>
     </row>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="007" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -307,13 +307,40 @@
   </si>
   <si>
     <t>Research Gate</t>
+  </si>
+  <si>
+    <t>VEC-007-04-187</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Kasirathi-Natarajan?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>VEC-007-04-178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/profile/Vidhya-Kumar-4?ev=hdr_xprf </t>
+  </si>
+  <si>
+    <t>VEC-007-04-185</t>
+  </si>
+  <si>
+    <t>VEC-007-04-184</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/scientific-contributions/D-Sunitha-2096230154</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Angala-Gandhinathan</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Raghuraman-Sivalingam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +471,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -746,7 +781,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -789,11 +824,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -827,6 +864,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1150,21 +1188,22 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B15" sqref="A10:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="57.21875" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" customWidth="1"/>
+    <col min="5" max="5" width="60.08984375" customWidth="1"/>
+    <col min="6" max="6" width="31.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" customWidth="1"/>
-    <col min="10" max="11" width="19" customWidth="1"/>
+    <col min="9" max="9" width="46.1796875" customWidth="1"/>
+    <col min="10" max="10" width="46.90625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1206,14 +1245,20 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1226,6 +1271,9 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -1238,8 +1286,11 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1252,6 +1303,9 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
@@ -1268,7 +1322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1281,6 +1335,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1320,7 +1377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1333,6 +1390,9 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
       <c r="F7" t="s">
         <v>47</v>
       </c>
@@ -1349,7 +1409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1365,8 +1425,11 @@
       <c r="I8" t="s">
         <v>55</v>
       </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1395,7 +1458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1421,7 +1484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1441,7 +1504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1461,7 +1524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1486,8 +1549,11 @@
       <c r="I13" t="s">
         <v>86</v>
       </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1517,6 +1583,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -61,7 +61,7 @@
     <t>www.linkedin.com/in/kasirathi-n-698393353</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_09.png</t>
+    <t>/static/images/profile_photos/007/VEC-007-04-187.webp</t>
   </si>
   <si>
     <t>VEC-007-04-187</t>
@@ -88,7 +88,8 @@
     <t>https://www.linkedin.com/in/vidhya-k-695143204/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_08.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-178.webp
+</t>
   </si>
   <si>
     <t>VEC-007-04-178</t>
@@ -115,7 +116,7 @@
     <t>https://www.linkedin.com/in/dr-sunitha-senthil-38b05961/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_07.png</t>
+    <t>/static/images/profile_photos/007/VEC-007-04-159.webp</t>
   </si>
   <si>
     <t>VEC-007-04-159</t>
@@ -139,7 +140,8 @@
     <t>https://www.linkedin.com/in/angala-parameswari-g-asst-professor-iii-0aa210345/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_06.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-164.webp
+</t>
   </si>
   <si>
     <t>VEC-007-04-164</t>
@@ -163,7 +165,8 @@
     <t>Selve Veerabathran - Assistant Professor - Velammal Engineering College LinkedIn</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_05.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-149.webp
+</t>
   </si>
   <si>
     <t>VEC-007-04-149</t>
@@ -190,7 +193,8 @@
     <t>https://www.linkedin.com/in/raghu-raman-sivalingam-930020125/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_04.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-109.webp
+</t>
   </si>
   <si>
     <t>VEC-007-04-109</t>
@@ -205,7 +209,8 @@
     <t>https://www.linkedin.com/in/geetha-raman-86a635203/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_03.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-185.webp
+</t>
   </si>
   <si>
     <t>VEC-007-04-185</t>
@@ -217,9 +222,6 @@
     <t>Professor and COE</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;user=bKrDAzMAAAAJ</t>
-  </si>
-  <si>
     <t>https://orcid.org/0000-0002-9953-9932</t>
   </si>
   <si>
@@ -232,7 +234,8 @@
     <t>https://www.linkedin.com/in/srinath-subbaraman-9b10b723/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_02.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-02-165.webp
+</t>
   </si>
   <si>
     <t>VEC-007-02-165</t>
@@ -256,7 +259,11 @@
     <t>https://www.linkedin.com/in/sureshkumar-k-19111860/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_01.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-03-500.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-03-500</t>
   </si>
   <si>
     <t>Mrs. Devika</t>
@@ -268,7 +275,11 @@
     <t>https://www.linkedin.com/in/b-devika-087814353/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-501.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-04-501</t>
   </si>
   <si>
     <t>Mrs. M. Vijayalakshmi</t>
@@ -283,7 +294,11 @@
     <t>www.linkedin.com/in/viji-lakshmi-70b667353</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_12.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-502.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-04-502</t>
   </si>
   <si>
     <t>Mr. V. Rengarajan</t>
@@ -301,7 +316,7 @@
     <t>www.linkedin.com/in/rengarajan-v-58281464</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_11.png</t>
+    <t>/static/images/profile_photos/007/VEC-007-04-184.webp</t>
   </si>
   <si>
     <t>VEC-007-04-184</t>
@@ -325,7 +340,8 @@
     <t>https://www.linkedin.com/in/jagadeesh-babu-jagababu007-35390365/</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/007/EEE_10.png</t>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-117.webp
+</t>
   </si>
   <si>
     <t>VEC-007-04-117</t>
@@ -706,7 +722,7 @@
     <col min="6" max="6" style="3" width="31.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="20.433571428571426" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="46.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="127.57642857142856" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="3" width="46.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -953,56 +969,56 @@
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
@@ -1026,90 +1042,94 @@
       <c r="I11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="007" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>VEC-007-04-502</t>
   </si>
   <si>
-    <t>MATHUMATHI T</t>
-  </si>
-  <si>
     <t>https://orcid.org/my-orcid?orcid=0009-0006-3420-0686</t>
   </si>
   <si>
@@ -291,13 +288,7 @@
     <t>VEC-007-04-501</t>
   </si>
   <si>
-    <t>Associate Professor &amp; Head</t>
-  </si>
-  <si>
     <t>Professor &amp; COE</t>
-  </si>
-  <si>
-    <t>Assistant Professor &amp; DCOE</t>
   </si>
   <si>
     <t>Dr. SRINATH S</t>
@@ -335,6 +326,15 @@
   <si>
     <t xml:space="preserve">Mrs. DEVIKA B
 </t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head in Charge</t>
+  </si>
+  <si>
+    <t>VEC-007-03-500</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/007/VEC-007-03-500.webp</t>
   </si>
 </sst>
 </file>
@@ -709,10 +709,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -774,15 +774,19 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -807,10 +811,10 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -835,7 +839,7 @@
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -859,7 +863,7 @@
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -885,7 +889,7 @@
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -917,7 +921,7 @@
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -949,7 +953,7 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -981,7 +985,7 @@
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -1013,7 +1017,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -1045,7 +1049,7 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -1075,7 +1079,7 @@
     </row>
     <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -1101,48 +1105,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>82</v>
+    <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="007" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="007"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +50,21 @@
 </t>
   </si>
   <si>
+    <t>Associate Professor &amp; Head in Charge</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/007/VEC-007-03-500.webp</t>
+  </si>
+  <si>
+    <t>VEC-007-03-500</t>
+  </si>
+  <si>
+    <t>Dr. SRINATH S</t>
+  </si>
+  <si>
+    <t>Professor &amp; COE</t>
+  </si>
+  <si>
     <t>https://orcid.org/0000-0002-9953-9932</t>
   </si>
   <si>
@@ -74,6 +84,12 @@
     <t>VEC-007-02-165</t>
   </si>
   <si>
+    <t>Mrs. ANGALAPARAMESWARI G</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?user=QJgd7cYAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -92,7 +108,7 @@
     <t>VEC-007-04-164</t>
   </si>
   <si>
-    <t>Assistant Professor</t>
+    <t>Dr. GEETHA R</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=z5gJDvwAAAAJ&amp;hl=en</t>
@@ -108,6 +124,9 @@
     <t>VEC-007-04-185</t>
   </si>
   <si>
+    <t>Mrs. KASIRATHI N</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C5&amp;q=kasirathi&amp;btnG=</t>
   </si>
   <si>
@@ -121,6 +140,9 @@
   </si>
   <si>
     <t>VEC-007-04-187</t>
+  </si>
+  <si>
+    <t>Dr. RAGHURAMAN S</t>
   </si>
   <si>
     <t>https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C5&amp;q=raghuraman+sivalingam&amp;oq=ra</t>
@@ -148,13 +170,13 @@
     <t>VEC-007-04-109</t>
   </si>
   <si>
+    <t>Mrs. SELVE V</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=7bJB7R8AAAAJ</t>
   </si>
   <si>
     <t>https://orcid.org/my-orcid?orcid=0000-0002-7783-9221</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>https://publons.com/wos-op/researcher/5362541/selve-v/</t>
@@ -170,6 +192,9 @@
     <t>VEC-007-04-149</t>
   </si>
   <si>
+    <t>Dr. VIDHYA K</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=6KRDyYEAAAAJ</t>
   </si>
   <si>
@@ -192,6 +217,9 @@
   </si>
   <si>
     <t>VEC-007-04-178</t>
+  </si>
+  <si>
+    <t>Mr. JAGADEESH BABU V</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=pK6RxpMAAAAJ&amp;hl=en</t>
@@ -216,6 +244,9 @@
     <t>VEC-007-04-117</t>
   </si>
   <si>
+    <t>Dr. SUNITHA D</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;user=2ZsplucAAAAJ</t>
   </si>
   <si>
@@ -240,6 +271,9 @@
     <t>VEC-007-04-159</t>
   </si>
   <si>
+    <t>Mr. RENGARAJAN V</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?user=iU1IeMsAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -256,6 +290,9 @@
   </si>
   <si>
     <t>VEC-007-04-184</t>
+  </si>
+  <si>
+    <t>Mrs. VIJAYALAKSHMI M</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=8VaZJUAAAAJ</t>
@@ -274,74 +311,29 @@
     <t>VEC-007-04-502</t>
   </si>
   <si>
-    <t>https://orcid.org/my-orcid?orcid=0009-0006-3420-0686</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/b-devika-087814353/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/static/images/profile_photos/007/VEC-007-04-501.webp
-"
-</t>
-  </si>
-  <si>
-    <t>VEC-007-04-501</t>
-  </si>
-  <si>
-    <t>Professor &amp; COE</t>
-  </si>
-  <si>
-    <t>Dr. SRINATH S</t>
-  </si>
-  <si>
-    <t>Mrs. ANGALAPARAMESWARI G</t>
-  </si>
-  <si>
-    <t>Dr. GEETHA R</t>
-  </si>
-  <si>
-    <t>Mrs. KASIRATHI N</t>
-  </si>
-  <si>
-    <t>Dr. RAGHURAMAN S</t>
-  </si>
-  <si>
-    <t>Mrs. SELVE V</t>
-  </si>
-  <si>
-    <t>Dr. VIDHYA K</t>
-  </si>
-  <si>
-    <t>Mr. JAGADEESH BABU V</t>
-  </si>
-  <si>
-    <t>Dr. SUNITHA D</t>
-  </si>
-  <si>
-    <t>Mr. RENGARAJAN V</t>
-  </si>
-  <si>
-    <t>Mrs. VIJAYALAKSHMI M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mrs. DEVIKA B
 </t>
   </si>
   <si>
-    <t>Associate Professor &amp; Head in Charge</t>
-  </si>
-  <si>
-    <t>VEC-007-03-500</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/007/VEC-007-03-500.webp</t>
+    <t>https://orcid.org/my-orcid?orcid=0009-0006-3420-0686</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/b-devika-087814353/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-04-501.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-04-501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -359,6 +351,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -390,32 +388,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,10 +433,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -467,71 +474,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,7 +566,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -582,11 +589,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -595,13 +602,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -611,7 +618,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -620,7 +627,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -629,7 +636,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -637,10 +644,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -711,426 +718,414 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="127.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="49.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="57.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="60.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="127.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="46.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45.75" customFormat="1" s="3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="72" customFormat="1" s="3">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="111.75" customFormat="1" s="3">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="72" customFormat="1" s="3">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="84.75" customFormat="1" s="3">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>74</v>
+      <c r="H12" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="3">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="3">
       <c r="A14" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC46D2-7460-4CF7-91F5-581BF313A791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="007"/>
+    <sheet name="007" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -326,14 +332,59 @@
   </si>
   <si>
     <t>VEC-007-04-501</t>
+  </si>
+  <si>
+    <t>GNANA SEKAR</t>
+  </si>
+  <si>
+    <t>RAJENDRAN.P</t>
+  </si>
+  <si>
+    <t>RANGARAJAN</t>
+  </si>
+  <si>
+    <t>SELVAKUMAR.P</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>Lab Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-8.webp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-9.webp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-10.webp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-19.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-05-19</t>
+  </si>
+  <si>
+    <t>VEC-007-05-8</t>
+  </si>
+  <si>
+    <t>VEC-007-05-9</t>
+  </si>
+  <si>
+    <t>VEC-007-05-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +411,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,45 +442,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,10 +499,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -474,71 +540,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,7 +632,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -589,11 +655,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -602,13 +668,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -618,7 +684,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -627,7 +693,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -636,7 +702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -644,10 +710,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -712,92 +778,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="49.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="57.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="60.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="127.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="46.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="127.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45.75" customFormat="1" s="3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
@@ -807,42 +867,40 @@
       <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="72" customFormat="1" s="3">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -852,47 +910,40 @@
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="111.75" customFormat="1" s="3">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -917,14 +968,14 @@
       <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="72" customFormat="1" s="3">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -937,54 +988,52 @@
       <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="84.75" customFormat="1" s="3">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -997,7 +1046,6 @@
       <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1007,76 +1055,75 @@
       <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="3">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -1089,43 +1136,93 @@
       <c r="D13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC46D2-7460-4CF7-91F5-581BF313A791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="007" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="007"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -337,60 +331,67 @@
     <t>GNANA SEKAR</t>
   </si>
   <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-008.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-05-008</t>
+  </si>
+  <si>
     <t>RAJENDRAN.P</t>
   </si>
   <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-009.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-05-009</t>
+  </si>
+  <si>
     <t>RANGARAJAN</t>
   </si>
   <si>
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-010.webp
+</t>
+  </si>
+  <si>
+    <t>VEC-007-05-010</t>
+  </si>
+  <si>
     <t>SELVAKUMAR.P</t>
   </si>
   <si>
-    <t>Lab Instructor</t>
-  </si>
-  <si>
     <t>Lab Assistant</t>
   </si>
   <si>
-    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-8.webp
+    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-019.webp
 </t>
   </si>
   <si>
-    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-9.webp
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-10.webp
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-19.webp
-</t>
-  </si>
-  <si>
-    <t>VEC-007-05-19</t>
-  </si>
-  <si>
-    <t>VEC-007-05-8</t>
-  </si>
-  <si>
-    <t>VEC-007-05-9</t>
-  </si>
-  <si>
-    <t>VEC-007-05-10</t>
+    <t>VEC-007-05-019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -404,19 +405,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,16 +432,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,34 +449,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,10 +503,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -540,71 +544,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,7 +636,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -655,11 +659,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -668,13 +672,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -684,7 +688,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -693,7 +697,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -702,7 +706,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -710,10 +714,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -778,451 +782,500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="127.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="49.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="57.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="60.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="127.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="46.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45.75" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="72" customFormat="1" s="1">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="111.75" customFormat="1" s="1">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="72" customFormat="1" s="1">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="84.75" customFormat="1" s="1">
+      <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="72" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="84.75" customFormat="1" s="1">
+      <c r="A13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="B16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J15" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="J18" s="3" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147DCEA5-491F-49C3-B6E0-4D8CC29CEBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="007"/>
+    <sheet name="007" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,10 +52,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t xml:space="preserve">SURESHKUMAR K
-</t>
-  </si>
-  <si>
     <t>Associate Professor &amp; Head in Charge</t>
   </si>
   <si>
@@ -328,9 +330,6 @@
     <t>VEC-007-04-501</t>
   </si>
   <si>
-    <t>GNANA SEKAR</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -341,9 +340,6 @@
     <t>VEC-007-05-008</t>
   </si>
   <si>
-    <t>RAJENDRAN.P</t>
-  </si>
-  <si>
     <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-009.webp
 </t>
   </si>
@@ -351,9 +347,6 @@
     <t>VEC-007-05-009</t>
   </si>
   <si>
-    <t>RANGARAJAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">/static/images/profile_photos/007/VEC-007-05-010.webp
 </t>
   </si>
@@ -361,9 +354,6 @@
     <t>VEC-007-05-010</t>
   </si>
   <si>
-    <t>SELVAKUMAR.P</t>
-  </si>
-  <si>
     <t>Lab Assistant</t>
   </si>
   <si>
@@ -372,13 +362,28 @@
   </si>
   <si>
     <t>VEC-007-05-019</t>
+  </si>
+  <si>
+    <t>Mr. GNANA SEKAR</t>
+  </si>
+  <si>
+    <t>Mr. RAJENDRAN.P</t>
+  </si>
+  <si>
+    <t>Mr. RANGARAJAN</t>
+  </si>
+  <si>
+    <t>Mr. SELVAKUMAR.P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. SURESHKUMAR K
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,50 +454,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,10 +499,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -544,71 +540,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,7 +632,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -659,11 +655,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -672,13 +668,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -688,7 +684,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -697,7 +693,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -706,7 +702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -714,10 +710,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -782,500 +778,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="9" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="49.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="57.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="60.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="127.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="46.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="127.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45.75" customFormat="1" s="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="72" customFormat="1" s="1">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="111.75" customFormat="1" s="1">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="72" customFormat="1" s="1">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="84.75" customFormat="1" s="1">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="72" customFormat="1" s="1">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="84.75" customFormat="1" s="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="1">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7" t="s">
+      <c r="I15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="J15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J16" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4" t="s">
+      <c r="J17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="7" t="s">
+      <c r="I18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4" t="s">
+      <c r="J18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/007.xlsx
+++ b/docs/STAFF-DATA/007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147DCEA5-491F-49C3-B6E0-4D8CC29CEBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417DF88C-86E3-4D9A-B562-DEA1F22BE1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15480" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="007" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>VEC-007-02-165</t>
   </si>
   <si>
-    <t>Mrs. ANGALAPARAMESWARI G</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -364,20 +361,23 @@
     <t>VEC-007-05-019</t>
   </si>
   <si>
-    <t>Mr. GNANA SEKAR</t>
-  </si>
-  <si>
     <t>Mr. RAJENDRAN.P</t>
   </si>
   <si>
-    <t>Mr. RANGARAJAN</t>
-  </si>
-  <si>
     <t>Mr. SELVAKUMAR.P</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. SURESHKUMAR K
+    <t xml:space="preserve">Dr. SURESHKUMAR K
 </t>
+  </si>
+  <si>
+    <t>Dr. ANGALAPARAMESWARI G</t>
+  </si>
+  <si>
+    <t>Mr. GNANASEKAR R</t>
+  </si>
+  <si>
+    <t>Mr. RANGARAJAN K</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -874,355 +874,355 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
